--- a/form_order_.xlsx
+++ b/form_order_.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Barcode</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">Tên sản phẩm</t>
   </si>
@@ -40,22 +37,13 @@
     <t xml:space="preserve">Số lượng</t>
   </si>
   <si>
-    <t xml:space="preserve">V0601230001</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gọng kính RB 2665</t>
   </si>
   <si>
     <t xml:space="preserve">Kính hiệu</t>
   </si>
   <si>
-    <t xml:space="preserve">V0601230002</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gọng kính RB 2666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V0601230003</t>
   </si>
   <si>
     <t xml:space="preserve">Gọng kính RB 2667</t>
@@ -172,19 +160,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="4" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -203,67 +191,55 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>2250000</v>
       </c>
+      <c r="D2" s="1" t="n">
+        <v>1850000</v>
+      </c>
       <c r="E2" s="1" t="n">
-        <v>1850000</v>
-      </c>
-      <c r="F2" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>2250001</v>
       </c>
+      <c r="D3" s="1" t="n">
+        <v>1850000</v>
+      </c>
       <c r="E3" s="1" t="n">
-        <v>1850000</v>
-      </c>
-      <c r="F3" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>2250002</v>
       </c>
+      <c r="D4" s="1" t="n">
+        <v>1850000</v>
+      </c>
       <c r="E4" s="1" t="n">
-        <v>1850000</v>
-      </c>
-      <c r="F4" s="1" t="n">
         <v>7</v>
       </c>
     </row>

--- a/form_order_.xlsx
+++ b/form_order_.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Barcode</t>
+  </si>
   <si>
     <t xml:space="preserve">Tên sản phẩm</t>
   </si>
@@ -37,10 +40,16 @@
     <t xml:space="preserve">Số lượng</t>
   </si>
   <si>
+    <t xml:space="preserve">2334234dsfdfs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gọng kính RB 2665</t>
   </si>
   <si>
     <t xml:space="preserve">Kính hiệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V000021004</t>
   </si>
   <si>
     <t xml:space="preserve">Gọng kính RB 2666</t>
@@ -160,23 +169,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="4" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="5" style="0" width="12.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -191,55 +199,115 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>2250000</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2250001</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2250002</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>2250000</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>1850000</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="E5" s="1" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2250001</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>2250001</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1850000</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="n">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>2250002</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>1850000</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="E7" s="1" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>7</v>
       </c>
     </row>
